--- a/backend/molgenis-emx2-jsonld/src/test/resources/fdp.xlsx
+++ b/backend/molgenis-emx2-jsonld/src/test/resources/fdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/backend/molgenis-emx2-jsonld/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6222DD1-8907-F349-906A-C7106900584F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9313063C-6E60-7E46-A167-EFD676ED1FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{FC3106C0-1D46-C24B-9B5F-C0729D326D4C}"/>
   </bookViews>
